--- a/Data_dictionary.xlsx
+++ b/Data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/2509920f_student_gla_ac_uk/Documents/DClin/Deliverables/Systematic Review/Writeup/DCLIN_SR_git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/alexander_fradera_glasgow_ac_uk/Documents/Documents/2. Research/1. Ongoing research/pre-qualification research projects/DCLIN_SR_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{9CB7E0E4-F6FA-4E66-9DE7-53BB9E02D650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8A2682-5C00-4353-9CD0-B0DB07BC6049}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{9CB7E0E4-F6FA-4E66-9DE7-53BB9E02D650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE9D300C-64D8-42B3-A26C-FA0558740E39}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="742" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="742" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="10" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="226">
   <si>
     <t>MMSE</t>
   </si>
@@ -772,6 +772,60 @@
   <si>
     <t>if statistical comparison made, with level of difference</t>
   </si>
+  <si>
+    <t>2 out of 10</t>
+  </si>
+  <si>
+    <t>Intensity at least moderate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasmuth </t>
+  </si>
+  <si>
+    <t>Moderate pain</t>
+  </si>
+  <si>
+    <t>Cut-offs</t>
+  </si>
+  <si>
+    <t>VIS-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average pain intensity of ≥30/100 in past week </t>
+  </si>
+  <si>
+    <t>of ≥40/100 on VAS</t>
+  </si>
+  <si>
+    <t>≥3/10 on NRS (numeurical rating scale)</t>
+  </si>
+  <si>
+    <t>4/10 on NRS</t>
+  </si>
+  <si>
+    <t>≥5/10 on NRS</t>
+  </si>
+  <si>
+    <t>buc 047 - 'moderate intensity'</t>
+  </si>
+  <si>
+    <t>Kar 113 moderate</t>
+  </si>
+  <si>
+    <t>NRS</t>
+  </si>
+  <si>
+    <t>Numerical rating scale</t>
+  </si>
+  <si>
+    <t>VAS</t>
+  </si>
+  <si>
+    <t>Visual Analogue scale</t>
+  </si>
+  <si>
+    <t>LIA 121 minimum pain magnitude VAS 3</t>
+  </si>
 </sst>
 </file>
 
@@ -780,7 +834,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +879,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -940,125 +1000,117 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,85 +1425,85 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="138.5703125" customWidth="1"/>
+    <col min="1" max="1" width="138.54296875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="5" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="2" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:1" s="2" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="12" spans="1:1" ht="82.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1470,982 +1522,981 @@
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:3" s="13" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="C11" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="C12" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="C13" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="C14" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="C15" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="C18" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="C19" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="C20" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="C21" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="C22" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:3" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:3" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="C28" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+    <row r="30" spans="1:3" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+    <row r="31" spans="1:3" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="C32" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="C33" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="C34" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="C35" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="C36" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="C37" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="C38" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="C39" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="C40" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="C41" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+    <row r="43" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="C45" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="C46" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+      <c r="C47" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="C48" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+      <c r="C49" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="C50" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+      <c r="C51" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="C52" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+      <c r="C53" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
+      <c r="C54" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+    <row r="56" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
+      <c r="C56" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="C57" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
+      <c r="C58" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
+      <c r="C59" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+    <row r="62" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="40" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="40" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="40" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="40" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="40" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="42" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="42" t="s">
+      <c r="C77" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="s">
+      <c r="C78" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="s">
+      <c r="C79" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="42" t="s">
+      <c r="C80" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="42" t="s">
+      <c r="C81" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="42" t="s">
+      <c r="C82" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
+      <c r="C83" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B84" s="42" t="s">
+      <c r="B84" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C84" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="s">
+      <c r="C84" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
+      <c r="C85" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B86" s="42" t="s">
+      <c r="B86" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="42" t="s">
+      <c r="C86" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="s">
+      <c r="C87" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C88" s="36" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2458,234 +2509,323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A3:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="56.26953125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="37.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
+      <c r="C3" s="40"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C11" s="40"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="41"/>
+      <c r="E15" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="41"/>
+      <c r="E16" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="44"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="19"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B22" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B23" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B24" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="C24" s="6"/>
+      <c r="E24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B25" s="37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="45"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="45"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="45"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="40"/>
+      <c r="E25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="E26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="45"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="45"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="45"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="45"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="46"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="12"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="12"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="12"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="12"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="45"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>